--- a/PT 4/Istanbul_StockMarket_09-11.xlsx
+++ b/PT 4/Istanbul_StockMarket_09-11.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB7F10D-C31C-4864-8DDC-E2F32A68AC68}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="24660" windowHeight="13095" tabRatio="788"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" tabRatio="788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orjinal data" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>imkb_x</t>
   </si>
@@ -59,15 +60,18 @@
   <si>
     <t>Student:</t>
   </si>
+  <si>
+    <t>USD BASED ISE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,23 +162,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Гиперссылка" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -462,14 +474,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U539"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
@@ -479,66 +491,66 @@
     <col min="14" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="8">
         <v>1</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="8">
         <v>2</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="8">
         <v>3</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="8">
         <v>4</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="8">
         <v>5</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="8">
         <v>6</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="8">
         <v>7</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="8">
         <v>8</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
       <c r="K2" s="5"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -546,7 +558,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>3</v>
@@ -569,7 +581,7 @@
       <c r="J3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="K3" s="7"/>
       <c r="L3" s="3"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -581,7 +593,7 @@
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>39818</v>
       </c>
@@ -614,7 +626,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>39819</v>
       </c>
@@ -647,7 +659,7 @@
       </c>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>39820</v>
       </c>
@@ -680,7 +692,7 @@
       </c>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>39821</v>
       </c>
@@ -713,7 +725,7 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>39822</v>
       </c>
@@ -746,7 +758,7 @@
       </c>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>39825</v>
       </c>
@@ -779,7 +791,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>39826</v>
       </c>
@@ -812,7 +824,7 @@
       </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>39827</v>
       </c>
@@ -845,7 +857,7 @@
       </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>39828</v>
       </c>
@@ -878,7 +890,7 @@
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>39829</v>
       </c>
@@ -911,7 +923,7 @@
       </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>39832</v>
       </c>
@@ -944,7 +956,7 @@
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>39833</v>
       </c>
@@ -977,7 +989,7 @@
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>39834</v>
       </c>
@@ -1010,7 +1022,7 @@
       </c>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>39835</v>
       </c>
@@ -1043,7 +1055,7 @@
       </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>39836</v>
       </c>
@@ -1076,7 +1088,7 @@
       </c>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>39839</v>
       </c>
@@ -1109,7 +1121,7 @@
       </c>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>39840</v>
       </c>
@@ -1142,7 +1154,7 @@
       </c>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>39841</v>
       </c>
@@ -1175,7 +1187,7 @@
       </c>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>39842</v>
       </c>
@@ -1208,7 +1220,7 @@
       </c>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>39843</v>
       </c>
@@ -1241,7 +1253,7 @@
       </c>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>39846</v>
       </c>
@@ -1274,7 +1286,7 @@
       </c>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>39847</v>
       </c>
@@ -1307,7 +1319,7 @@
       </c>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>39848</v>
       </c>
@@ -1340,7 +1352,7 @@
       </c>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>39849</v>
       </c>
@@ -1373,7 +1385,7 @@
       </c>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>39850</v>
       </c>
@@ -1406,7 +1418,7 @@
       </c>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>39853</v>
       </c>
@@ -1439,7 +1451,7 @@
       </c>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>39854</v>
       </c>
@@ -1472,7 +1484,7 @@
       </c>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>39855</v>
       </c>
@@ -1505,7 +1517,7 @@
       </c>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>39856</v>
       </c>
@@ -1538,7 +1550,7 @@
       </c>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>39857</v>
       </c>
@@ -1571,7 +1583,7 @@
       </c>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>39860</v>
       </c>
@@ -1604,7 +1616,7 @@
       </c>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>39861</v>
       </c>
@@ -1637,7 +1649,7 @@
       </c>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>39862</v>
       </c>
@@ -1670,7 +1682,7 @@
       </c>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>39863</v>
       </c>
@@ -1703,7 +1715,7 @@
       </c>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>39864</v>
       </c>
@@ -1736,7 +1748,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>39867</v>
       </c>
@@ -1769,7 +1781,7 @@
       </c>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39868</v>
       </c>
@@ -1802,7 +1814,7 @@
       </c>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39869</v>
       </c>
@@ -1835,7 +1847,7 @@
       </c>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39870</v>
       </c>
@@ -1868,7 +1880,7 @@
       </c>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>39871</v>
       </c>
@@ -1901,7 +1913,7 @@
       </c>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>39874</v>
       </c>
@@ -1934,7 +1946,7 @@
       </c>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>39875</v>
       </c>
@@ -1967,7 +1979,7 @@
       </c>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>39876</v>
       </c>
@@ -2000,7 +2012,7 @@
       </c>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>39877</v>
       </c>
@@ -2033,7 +2045,7 @@
       </c>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>39878</v>
       </c>
@@ -2066,7 +2078,7 @@
       </c>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>39881</v>
       </c>
@@ -2099,7 +2111,7 @@
       </c>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>39882</v>
       </c>
@@ -2132,7 +2144,7 @@
       </c>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>39883</v>
       </c>
@@ -2165,7 +2177,7 @@
       </c>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>39884</v>
       </c>
@@ -2198,7 +2210,7 @@
       </c>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>39885</v>
       </c>
@@ -2231,7 +2243,7 @@
       </c>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>39888</v>
       </c>
@@ -2264,7 +2276,7 @@
       </c>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>39889</v>
       </c>
@@ -2297,7 +2309,7 @@
       </c>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>39890</v>
       </c>
@@ -2330,7 +2342,7 @@
       </c>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>39891</v>
       </c>
@@ -2363,7 +2375,7 @@
       </c>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>39892</v>
       </c>
@@ -2396,7 +2408,7 @@
       </c>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>39895</v>
       </c>
@@ -2429,7 +2441,7 @@
       </c>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>39896</v>
       </c>
@@ -2462,7 +2474,7 @@
       </c>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>39897</v>
       </c>
@@ -2495,7 +2507,7 @@
       </c>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>39898</v>
       </c>
@@ -2528,7 +2540,7 @@
       </c>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>39899</v>
       </c>
@@ -2561,7 +2573,7 @@
       </c>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>39902</v>
       </c>
@@ -2594,7 +2606,7 @@
       </c>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>39903</v>
       </c>
@@ -2627,7 +2639,7 @@
       </c>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>39904</v>
       </c>
@@ -2660,7 +2672,7 @@
       </c>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>39905</v>
       </c>
@@ -2693,7 +2705,7 @@
       </c>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>39906</v>
       </c>
@@ -2726,7 +2738,7 @@
       </c>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>39909</v>
       </c>
@@ -2759,7 +2771,7 @@
       </c>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>39910</v>
       </c>
@@ -2792,7 +2804,7 @@
       </c>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>39911</v>
       </c>
@@ -2825,7 +2837,7 @@
       </c>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>39912</v>
       </c>
@@ -2858,7 +2870,7 @@
       </c>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>39913</v>
       </c>
@@ -2891,7 +2903,7 @@
       </c>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>39916</v>
       </c>
@@ -2924,7 +2936,7 @@
       </c>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>39917</v>
       </c>
@@ -2957,7 +2969,7 @@
       </c>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>39918</v>
       </c>
@@ -2990,7 +3002,7 @@
       </c>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>39919</v>
       </c>
@@ -3023,7 +3035,7 @@
       </c>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>39920</v>
       </c>
@@ -3056,7 +3068,7 @@
       </c>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>39923</v>
       </c>
@@ -3089,7 +3101,7 @@
       </c>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>39924</v>
       </c>
@@ -3122,7 +3134,7 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>39925</v>
       </c>
@@ -3155,7 +3167,7 @@
       </c>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>39927</v>
       </c>
@@ -3188,7 +3200,7 @@
       </c>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>39930</v>
       </c>
@@ -3221,7 +3233,7 @@
       </c>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>39931</v>
       </c>
@@ -3254,7 +3266,7 @@
       </c>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>39932</v>
       </c>
@@ -3287,7 +3299,7 @@
       </c>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>39933</v>
       </c>
@@ -3320,7 +3332,7 @@
       </c>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>39937</v>
       </c>
@@ -3353,7 +3365,7 @@
       </c>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>39938</v>
       </c>
@@ -3386,7 +3398,7 @@
       </c>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>39939</v>
       </c>
@@ -3419,7 +3431,7 @@
       </c>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>39940</v>
       </c>
@@ -3452,7 +3464,7 @@
       </c>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>39941</v>
       </c>
@@ -3485,7 +3497,7 @@
       </c>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>39944</v>
       </c>
@@ -3518,7 +3530,7 @@
       </c>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>39945</v>
       </c>
@@ -3551,7 +3563,7 @@
       </c>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>39946</v>
       </c>
@@ -3584,7 +3596,7 @@
       </c>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>39947</v>
       </c>
@@ -3617,7 +3629,7 @@
       </c>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>39948</v>
       </c>
@@ -3650,7 +3662,7 @@
       </c>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>39951</v>
       </c>
@@ -3683,7 +3695,7 @@
       </c>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>39953</v>
       </c>
@@ -3716,7 +3728,7 @@
       </c>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>39954</v>
       </c>
@@ -3749,7 +3761,7 @@
       </c>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>39955</v>
       </c>
@@ -3782,7 +3794,7 @@
       </c>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>39958</v>
       </c>
@@ -3815,7 +3827,7 @@
       </c>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>39959</v>
       </c>
@@ -3848,7 +3860,7 @@
       </c>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>39960</v>
       </c>
@@ -3881,7 +3893,7 @@
       </c>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>39961</v>
       </c>
@@ -3914,7 +3926,7 @@
       </c>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>39962</v>
       </c>
@@ -3947,7 +3959,7 @@
       </c>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>39965</v>
       </c>
@@ -3980,7 +3992,7 @@
       </c>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>39966</v>
       </c>
@@ -4013,7 +4025,7 @@
       </c>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>39967</v>
       </c>
@@ -4046,7 +4058,7 @@
       </c>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>39968</v>
       </c>
@@ -4079,7 +4091,7 @@
       </c>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>39969</v>
       </c>
@@ -4112,7 +4124,7 @@
       </c>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>39972</v>
       </c>
@@ -4145,7 +4157,7 @@
       </c>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>39973</v>
       </c>
@@ -4178,7 +4190,7 @@
       </c>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>39974</v>
       </c>
@@ -4211,7 +4223,7 @@
       </c>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>39975</v>
       </c>
@@ -4244,7 +4256,7 @@
       </c>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>39976</v>
       </c>
@@ -4277,7 +4289,7 @@
       </c>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>39979</v>
       </c>
@@ -4310,7 +4322,7 @@
       </c>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>39980</v>
       </c>
@@ -4343,7 +4355,7 @@
       </c>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>39981</v>
       </c>
@@ -4376,7 +4388,7 @@
       </c>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>39982</v>
       </c>
@@ -4409,7 +4421,7 @@
       </c>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>39983</v>
       </c>
@@ -4442,7 +4454,7 @@
       </c>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>39986</v>
       </c>
@@ -4475,7 +4487,7 @@
       </c>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>39987</v>
       </c>
@@ -4508,7 +4520,7 @@
       </c>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>39988</v>
       </c>
@@ -4541,7 +4553,7 @@
       </c>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>39989</v>
       </c>
@@ -4574,7 +4586,7 @@
       </c>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>39990</v>
       </c>
@@ -4607,7 +4619,7 @@
       </c>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>39993</v>
       </c>
@@ -4640,7 +4652,7 @@
       </c>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>39994</v>
       </c>
@@ -4673,7 +4685,7 @@
       </c>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>39995</v>
       </c>
@@ -4706,7 +4718,7 @@
       </c>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>39996</v>
       </c>
@@ -4739,7 +4751,7 @@
       </c>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>39997</v>
       </c>
@@ -4772,7 +4784,7 @@
       </c>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>40000</v>
       </c>
@@ -4805,7 +4817,7 @@
       </c>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>40001</v>
       </c>
@@ -4838,7 +4850,7 @@
       </c>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>40002</v>
       </c>
@@ -4871,7 +4883,7 @@
       </c>
       <c r="L133" s="2"/>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>40003</v>
       </c>
@@ -4904,7 +4916,7 @@
       </c>
       <c r="L134" s="2"/>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>40004</v>
       </c>
@@ -4937,7 +4949,7 @@
       </c>
       <c r="L135" s="2"/>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>40007</v>
       </c>
@@ -4970,7 +4982,7 @@
       </c>
       <c r="L136" s="2"/>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>40008</v>
       </c>
@@ -5003,7 +5015,7 @@
       </c>
       <c r="L137" s="2"/>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>40009</v>
       </c>
@@ -5036,7 +5048,7 @@
       </c>
       <c r="L138" s="2"/>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>40010</v>
       </c>
@@ -5069,7 +5081,7 @@
       </c>
       <c r="L139" s="2"/>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>40011</v>
       </c>
@@ -5102,7 +5114,7 @@
       </c>
       <c r="L140" s="2"/>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>40014</v>
       </c>
@@ -5135,7 +5147,7 @@
       </c>
       <c r="L141" s="2"/>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>40015</v>
       </c>
@@ -5168,7 +5180,7 @@
       </c>
       <c r="L142" s="2"/>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>40016</v>
       </c>
@@ -5201,7 +5213,7 @@
       </c>
       <c r="L143" s="2"/>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>40017</v>
       </c>
@@ -5234,7 +5246,7 @@
       </c>
       <c r="L144" s="2"/>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>40018</v>
       </c>
@@ -5267,7 +5279,7 @@
       </c>
       <c r="L145" s="2"/>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>40021</v>
       </c>
@@ -5300,7 +5312,7 @@
       </c>
       <c r="L146" s="2"/>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>40022</v>
       </c>
@@ -5333,7 +5345,7 @@
       </c>
       <c r="L147" s="2"/>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>40023</v>
       </c>
@@ -5366,7 +5378,7 @@
       </c>
       <c r="L148" s="2"/>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>40024</v>
       </c>
@@ -5399,7 +5411,7 @@
       </c>
       <c r="L149" s="2"/>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>40025</v>
       </c>
@@ -5432,7 +5444,7 @@
       </c>
       <c r="L150" s="2"/>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>40028</v>
       </c>
@@ -5465,7 +5477,7 @@
       </c>
       <c r="L151" s="2"/>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>40029</v>
       </c>
@@ -5498,7 +5510,7 @@
       </c>
       <c r="L152" s="2"/>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>40030</v>
       </c>
@@ -5531,7 +5543,7 @@
       </c>
       <c r="L153" s="2"/>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>40031</v>
       </c>
@@ -5564,7 +5576,7 @@
       </c>
       <c r="L154" s="2"/>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>40032</v>
       </c>
@@ -5597,7 +5609,7 @@
       </c>
       <c r="L155" s="2"/>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>40035</v>
       </c>
@@ -5630,7 +5642,7 @@
       </c>
       <c r="L156" s="2"/>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>40036</v>
       </c>
@@ -5663,7 +5675,7 @@
       </c>
       <c r="L157" s="2"/>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>40037</v>
       </c>
@@ -5696,7 +5708,7 @@
       </c>
       <c r="L158" s="2"/>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>40038</v>
       </c>
@@ -5729,7 +5741,7 @@
       </c>
       <c r="L159" s="2"/>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>40039</v>
       </c>
@@ -5762,7 +5774,7 @@
       </c>
       <c r="L160" s="2"/>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>40042</v>
       </c>
@@ -5795,7 +5807,7 @@
       </c>
       <c r="L161" s="2"/>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>40043</v>
       </c>
@@ -5828,7 +5840,7 @@
       </c>
       <c r="L162" s="2"/>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>40044</v>
       </c>
@@ -5861,7 +5873,7 @@
       </c>
       <c r="L163" s="2"/>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>40045</v>
       </c>
@@ -5894,7 +5906,7 @@
       </c>
       <c r="L164" s="2"/>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>40046</v>
       </c>
@@ -5927,7 +5939,7 @@
       </c>
       <c r="L165" s="2"/>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>40049</v>
       </c>
@@ -5960,7 +5972,7 @@
       </c>
       <c r="L166" s="2"/>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>40050</v>
       </c>
@@ -5993,7 +6005,7 @@
       </c>
       <c r="L167" s="2"/>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>40051</v>
       </c>
@@ -6026,7 +6038,7 @@
       </c>
       <c r="L168" s="2"/>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>40052</v>
       </c>
@@ -6059,7 +6071,7 @@
       </c>
       <c r="L169" s="2"/>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>40053</v>
       </c>
@@ -6092,7 +6104,7 @@
       </c>
       <c r="L170" s="2"/>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>40056</v>
       </c>
@@ -6125,7 +6137,7 @@
       </c>
       <c r="L171" s="2"/>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>40057</v>
       </c>
@@ -6158,7 +6170,7 @@
       </c>
       <c r="L172" s="2"/>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>40058</v>
       </c>
@@ -6191,7 +6203,7 @@
       </c>
       <c r="L173" s="2"/>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>40059</v>
       </c>
@@ -6224,7 +6236,7 @@
       </c>
       <c r="L174" s="2"/>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>40060</v>
       </c>
@@ -6257,7 +6269,7 @@
       </c>
       <c r="L175" s="2"/>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>40063</v>
       </c>
@@ -6290,7 +6302,7 @@
       </c>
       <c r="L176" s="2"/>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>40064</v>
       </c>
@@ -6323,7 +6335,7 @@
       </c>
       <c r="L177" s="2"/>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>40065</v>
       </c>
@@ -6356,7 +6368,7 @@
       </c>
       <c r="L178" s="2"/>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>40066</v>
       </c>
@@ -6389,7 +6401,7 @@
       </c>
       <c r="L179" s="2"/>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>40067</v>
       </c>
@@ -6422,7 +6434,7 @@
       </c>
       <c r="L180" s="2"/>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>40070</v>
       </c>
@@ -6455,7 +6467,7 @@
       </c>
       <c r="L181" s="2"/>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>40071</v>
       </c>
@@ -6488,7 +6500,7 @@
       </c>
       <c r="L182" s="2"/>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>40072</v>
       </c>
@@ -6521,7 +6533,7 @@
       </c>
       <c r="L183" s="2"/>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>40073</v>
       </c>
@@ -6554,7 +6566,7 @@
       </c>
       <c r="L184" s="2"/>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>40074</v>
       </c>
@@ -6587,7 +6599,7 @@
       </c>
       <c r="L185" s="2"/>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>40079</v>
       </c>
@@ -6620,7 +6632,7 @@
       </c>
       <c r="L186" s="2"/>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>40080</v>
       </c>
@@ -6653,7 +6665,7 @@
       </c>
       <c r="L187" s="2"/>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>40081</v>
       </c>
@@ -6686,7 +6698,7 @@
       </c>
       <c r="L188" s="2"/>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>40084</v>
       </c>
@@ -6719,7 +6731,7 @@
       </c>
       <c r="L189" s="2"/>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>40085</v>
       </c>
@@ -6752,7 +6764,7 @@
       </c>
       <c r="L190" s="2"/>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>40086</v>
       </c>
@@ -6785,7 +6797,7 @@
       </c>
       <c r="L191" s="2"/>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>40087</v>
       </c>
@@ -6818,7 +6830,7 @@
       </c>
       <c r="L192" s="2"/>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>40088</v>
       </c>
@@ -6851,7 +6863,7 @@
       </c>
       <c r="L193" s="2"/>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>40091</v>
       </c>
@@ -6884,7 +6896,7 @@
       </c>
       <c r="L194" s="2"/>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>40092</v>
       </c>
@@ -6917,7 +6929,7 @@
       </c>
       <c r="L195" s="2"/>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>40093</v>
       </c>
@@ -6950,7 +6962,7 @@
       </c>
       <c r="L196" s="2"/>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>40094</v>
       </c>
@@ -6983,7 +6995,7 @@
       </c>
       <c r="L197" s="2"/>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>40095</v>
       </c>
@@ -7016,7 +7028,7 @@
       </c>
       <c r="L198" s="2"/>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>40098</v>
       </c>
@@ -7049,7 +7061,7 @@
       </c>
       <c r="L199" s="2"/>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>40099</v>
       </c>
@@ -7083,7 +7095,7 @@
       <c r="K200" s="1"/>
       <c r="L200" s="2"/>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>40100</v>
       </c>
@@ -7116,7 +7128,7 @@
       </c>
       <c r="L201" s="2"/>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>40101</v>
       </c>
@@ -7149,7 +7161,7 @@
       </c>
       <c r="L202" s="2"/>
     </row>
-    <row r="203" spans="1:12">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>40102</v>
       </c>
@@ -7182,7 +7194,7 @@
       </c>
       <c r="L203" s="2"/>
     </row>
-    <row r="204" spans="1:12">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>40105</v>
       </c>
@@ -7215,7 +7227,7 @@
       </c>
       <c r="L204" s="2"/>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>40106</v>
       </c>
@@ -7248,7 +7260,7 @@
       </c>
       <c r="L205" s="2"/>
     </row>
-    <row r="206" spans="1:12">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>40107</v>
       </c>
@@ -7281,7 +7293,7 @@
       </c>
       <c r="L206" s="2"/>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>40108</v>
       </c>
@@ -7314,7 +7326,7 @@
       </c>
       <c r="L207" s="2"/>
     </row>
-    <row r="208" spans="1:12">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>40109</v>
       </c>
@@ -7347,7 +7359,7 @@
       </c>
       <c r="L208" s="2"/>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>40112</v>
       </c>
@@ -7380,7 +7392,7 @@
       </c>
       <c r="L209" s="2"/>
     </row>
-    <row r="210" spans="1:12">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>40113</v>
       </c>
@@ -7413,7 +7425,7 @@
       </c>
       <c r="L210" s="2"/>
     </row>
-    <row r="211" spans="1:12">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>40114</v>
       </c>
@@ -7446,7 +7458,7 @@
       </c>
       <c r="L211" s="2"/>
     </row>
-    <row r="212" spans="1:12">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>40116</v>
       </c>
@@ -7479,7 +7491,7 @@
       </c>
       <c r="L212" s="2"/>
     </row>
-    <row r="213" spans="1:12">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>40119</v>
       </c>
@@ -7512,7 +7524,7 @@
       </c>
       <c r="L213" s="2"/>
     </row>
-    <row r="214" spans="1:12">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>40120</v>
       </c>
@@ -7545,7 +7557,7 @@
       </c>
       <c r="L214" s="2"/>
     </row>
-    <row r="215" spans="1:12">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>40121</v>
       </c>
@@ -7578,7 +7590,7 @@
       </c>
       <c r="L215" s="2"/>
     </row>
-    <row r="216" spans="1:12">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>40122</v>
       </c>
@@ -7611,7 +7623,7 @@
       </c>
       <c r="L216" s="2"/>
     </row>
-    <row r="217" spans="1:12">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>40123</v>
       </c>
@@ -7644,7 +7656,7 @@
       </c>
       <c r="L217" s="2"/>
     </row>
-    <row r="218" spans="1:12">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>40126</v>
       </c>
@@ -7677,7 +7689,7 @@
       </c>
       <c r="L218" s="2"/>
     </row>
-    <row r="219" spans="1:12">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>40127</v>
       </c>
@@ -7710,7 +7722,7 @@
       </c>
       <c r="L219" s="2"/>
     </row>
-    <row r="220" spans="1:12">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>40128</v>
       </c>
@@ -7743,7 +7755,7 @@
       </c>
       <c r="L220" s="2"/>
     </row>
-    <row r="221" spans="1:12">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>40129</v>
       </c>
@@ -7776,7 +7788,7 @@
       </c>
       <c r="L221" s="2"/>
     </row>
-    <row r="222" spans="1:12">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>40130</v>
       </c>
@@ -7809,7 +7821,7 @@
       </c>
       <c r="L222" s="2"/>
     </row>
-    <row r="223" spans="1:12">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>40133</v>
       </c>
@@ -7842,7 +7854,7 @@
       </c>
       <c r="L223" s="2"/>
     </row>
-    <row r="224" spans="1:12">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>40134</v>
       </c>
@@ -7875,7 +7887,7 @@
       </c>
       <c r="L224" s="2"/>
     </row>
-    <row r="225" spans="1:12">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>40135</v>
       </c>
@@ -7908,7 +7920,7 @@
       </c>
       <c r="L225" s="2"/>
     </row>
-    <row r="226" spans="1:12">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>40136</v>
       </c>
@@ -7941,7 +7953,7 @@
       </c>
       <c r="L226" s="2"/>
     </row>
-    <row r="227" spans="1:12">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>40137</v>
       </c>
@@ -7974,7 +7986,7 @@
       </c>
       <c r="L227" s="2"/>
     </row>
-    <row r="228" spans="1:12">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>40140</v>
       </c>
@@ -8007,7 +8019,7 @@
       </c>
       <c r="L228" s="2"/>
     </row>
-    <row r="229" spans="1:12">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>40141</v>
       </c>
@@ -8040,7 +8052,7 @@
       </c>
       <c r="L229" s="2"/>
     </row>
-    <row r="230" spans="1:12">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>40142</v>
       </c>
@@ -8073,7 +8085,7 @@
       </c>
       <c r="L230" s="2"/>
     </row>
-    <row r="231" spans="1:12">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>40148</v>
       </c>
@@ -8106,7 +8118,7 @@
       </c>
       <c r="L231" s="2"/>
     </row>
-    <row r="232" spans="1:12">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>40149</v>
       </c>
@@ -8139,7 +8151,7 @@
       </c>
       <c r="L232" s="2"/>
     </row>
-    <row r="233" spans="1:12">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>40150</v>
       </c>
@@ -8172,7 +8184,7 @@
       </c>
       <c r="L233" s="2"/>
     </row>
-    <row r="234" spans="1:12">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>40151</v>
       </c>
@@ -8206,7 +8218,7 @@
       <c r="K234" s="1"/>
       <c r="L234" s="2"/>
     </row>
-    <row r="235" spans="1:12">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>40154</v>
       </c>
@@ -8239,7 +8251,7 @@
       </c>
       <c r="L235" s="2"/>
     </row>
-    <row r="236" spans="1:12">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>40155</v>
       </c>
@@ -8272,7 +8284,7 @@
       </c>
       <c r="L236" s="2"/>
     </row>
-    <row r="237" spans="1:12">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>40156</v>
       </c>
@@ -8305,7 +8317,7 @@
       </c>
       <c r="L237" s="2"/>
     </row>
-    <row r="238" spans="1:12">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>40157</v>
       </c>
@@ -8338,7 +8350,7 @@
       </c>
       <c r="L238" s="2"/>
     </row>
-    <row r="239" spans="1:12">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>40158</v>
       </c>
@@ -8371,7 +8383,7 @@
       </c>
       <c r="L239" s="2"/>
     </row>
-    <row r="240" spans="1:12">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>40161</v>
       </c>
@@ -8404,7 +8416,7 @@
       </c>
       <c r="L240" s="2"/>
     </row>
-    <row r="241" spans="1:12">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>40162</v>
       </c>
@@ -8437,7 +8449,7 @@
       </c>
       <c r="L241" s="2"/>
     </row>
-    <row r="242" spans="1:12">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>40163</v>
       </c>
@@ -8470,7 +8482,7 @@
       </c>
       <c r="L242" s="2"/>
     </row>
-    <row r="243" spans="1:12">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>40164</v>
       </c>
@@ -8503,7 +8515,7 @@
       </c>
       <c r="L243" s="2"/>
     </row>
-    <row r="244" spans="1:12">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>40165</v>
       </c>
@@ -8536,7 +8548,7 @@
       </c>
       <c r="L244" s="2"/>
     </row>
-    <row r="245" spans="1:12">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>40168</v>
       </c>
@@ -8569,7 +8581,7 @@
       </c>
       <c r="L245" s="2"/>
     </row>
-    <row r="246" spans="1:12">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>40169</v>
       </c>
@@ -8602,7 +8614,7 @@
       </c>
       <c r="L246" s="2"/>
     </row>
-    <row r="247" spans="1:12">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>40170</v>
       </c>
@@ -8635,7 +8647,7 @@
       </c>
       <c r="L247" s="2"/>
     </row>
-    <row r="248" spans="1:12">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>40171</v>
       </c>
@@ -8668,7 +8680,7 @@
       </c>
       <c r="L248" s="2"/>
     </row>
-    <row r="249" spans="1:12">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>40172</v>
       </c>
@@ -8701,7 +8713,7 @@
       </c>
       <c r="L249" s="2"/>
     </row>
-    <row r="250" spans="1:12">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>40175</v>
       </c>
@@ -8734,7 +8746,7 @@
       </c>
       <c r="L250" s="2"/>
     </row>
-    <row r="251" spans="1:12">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>40176</v>
       </c>
@@ -8767,7 +8779,7 @@
       </c>
       <c r="L251" s="2"/>
     </row>
-    <row r="252" spans="1:12">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>40177</v>
       </c>
@@ -8800,7 +8812,7 @@
       </c>
       <c r="L252" s="2"/>
     </row>
-    <row r="253" spans="1:12">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>40178</v>
       </c>
@@ -8833,7 +8845,7 @@
       </c>
       <c r="L253" s="2"/>
     </row>
-    <row r="254" spans="1:12">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>40182</v>
       </c>
@@ -8866,7 +8878,7 @@
       </c>
       <c r="L254" s="2"/>
     </row>
-    <row r="255" spans="1:12">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>40183</v>
       </c>
@@ -8899,7 +8911,7 @@
       </c>
       <c r="L255" s="2"/>
     </row>
-    <row r="256" spans="1:12">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>40184</v>
       </c>
@@ -8932,7 +8944,7 @@
       </c>
       <c r="L256" s="2"/>
     </row>
-    <row r="257" spans="1:12">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>40185</v>
       </c>
@@ -8965,7 +8977,7 @@
       </c>
       <c r="L257" s="2"/>
     </row>
-    <row r="258" spans="1:12">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>40186</v>
       </c>
@@ -8998,7 +9010,7 @@
       </c>
       <c r="L258" s="2"/>
     </row>
-    <row r="259" spans="1:12">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>40189</v>
       </c>
@@ -9031,7 +9043,7 @@
       </c>
       <c r="L259" s="2"/>
     </row>
-    <row r="260" spans="1:12">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>40190</v>
       </c>
@@ -9064,7 +9076,7 @@
       </c>
       <c r="L260" s="2"/>
     </row>
-    <row r="261" spans="1:12">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>40191</v>
       </c>
@@ -9097,7 +9109,7 @@
       </c>
       <c r="L261" s="2"/>
     </row>
-    <row r="262" spans="1:12">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>40192</v>
       </c>
@@ -9130,7 +9142,7 @@
       </c>
       <c r="L262" s="2"/>
     </row>
-    <row r="263" spans="1:12">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>40193</v>
       </c>
@@ -9163,7 +9175,7 @@
       </c>
       <c r="L263" s="2"/>
     </row>
-    <row r="264" spans="1:12">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>40196</v>
       </c>
@@ -9196,7 +9208,7 @@
       </c>
       <c r="L264" s="2"/>
     </row>
-    <row r="265" spans="1:12">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>40197</v>
       </c>
@@ -9229,7 +9241,7 @@
       </c>
       <c r="L265" s="2"/>
     </row>
-    <row r="266" spans="1:12">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>40198</v>
       </c>
@@ -9262,7 +9274,7 @@
       </c>
       <c r="L266" s="2"/>
     </row>
-    <row r="267" spans="1:12">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>40199</v>
       </c>
@@ -9295,7 +9307,7 @@
       </c>
       <c r="L267" s="2"/>
     </row>
-    <row r="268" spans="1:12">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>40200</v>
       </c>
@@ -9328,7 +9340,7 @@
       </c>
       <c r="L268" s="2"/>
     </row>
-    <row r="269" spans="1:12">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>40203</v>
       </c>
@@ -9361,7 +9373,7 @@
       </c>
       <c r="L269" s="2"/>
     </row>
-    <row r="270" spans="1:12">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>40204</v>
       </c>
@@ -9394,7 +9406,7 @@
       </c>
       <c r="L270" s="2"/>
     </row>
-    <row r="271" spans="1:12">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>40205</v>
       </c>
@@ -9427,7 +9439,7 @@
       </c>
       <c r="L271" s="2"/>
     </row>
-    <row r="272" spans="1:12">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>40206</v>
       </c>
@@ -9460,7 +9472,7 @@
       </c>
       <c r="L272" s="2"/>
     </row>
-    <row r="273" spans="1:12">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>40207</v>
       </c>
@@ -9493,7 +9505,7 @@
       </c>
       <c r="L273" s="2"/>
     </row>
-    <row r="274" spans="1:12">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>40210</v>
       </c>
@@ -9526,7 +9538,7 @@
       </c>
       <c r="L274" s="2"/>
     </row>
-    <row r="275" spans="1:12">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>40211</v>
       </c>
@@ -9559,7 +9571,7 @@
       </c>
       <c r="L275" s="2"/>
     </row>
-    <row r="276" spans="1:12">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>40212</v>
       </c>
@@ -9592,7 +9604,7 @@
       </c>
       <c r="L276" s="2"/>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>40213</v>
       </c>
@@ -9625,7 +9637,7 @@
       </c>
       <c r="L277" s="2"/>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>40214</v>
       </c>
@@ -9658,7 +9670,7 @@
       </c>
       <c r="L278" s="2"/>
     </row>
-    <row r="279" spans="1:12">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>40217</v>
       </c>
@@ -9691,7 +9703,7 @@
       </c>
       <c r="L279" s="2"/>
     </row>
-    <row r="280" spans="1:12">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>40218</v>
       </c>
@@ -9724,7 +9736,7 @@
       </c>
       <c r="L280" s="2"/>
     </row>
-    <row r="281" spans="1:12">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>40219</v>
       </c>
@@ -9757,7 +9769,7 @@
       </c>
       <c r="L281" s="2"/>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>40220</v>
       </c>
@@ -9790,7 +9802,7 @@
       </c>
       <c r="L282" s="2"/>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>40221</v>
       </c>
@@ -9823,7 +9835,7 @@
       </c>
       <c r="L283" s="2"/>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>40224</v>
       </c>
@@ -9856,7 +9868,7 @@
       </c>
       <c r="L284" s="2"/>
     </row>
-    <row r="285" spans="1:12">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>40225</v>
       </c>
@@ -9889,7 +9901,7 @@
       </c>
       <c r="L285" s="2"/>
     </row>
-    <row r="286" spans="1:12">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>40226</v>
       </c>
@@ -9922,7 +9934,7 @@
       </c>
       <c r="L286" s="2"/>
     </row>
-    <row r="287" spans="1:12">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>40227</v>
       </c>
@@ -9955,7 +9967,7 @@
       </c>
       <c r="L287" s="2"/>
     </row>
-    <row r="288" spans="1:12">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>40228</v>
       </c>
@@ -9988,7 +10000,7 @@
       </c>
       <c r="L288" s="2"/>
     </row>
-    <row r="289" spans="1:12">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>40231</v>
       </c>
@@ -10021,7 +10033,7 @@
       </c>
       <c r="L289" s="2"/>
     </row>
-    <row r="290" spans="1:12">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>40232</v>
       </c>
@@ -10054,7 +10066,7 @@
       </c>
       <c r="L290" s="2"/>
     </row>
-    <row r="291" spans="1:12">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>40233</v>
       </c>
@@ -10087,7 +10099,7 @@
       </c>
       <c r="L291" s="2"/>
     </row>
-    <row r="292" spans="1:12">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>40234</v>
       </c>
@@ -10120,7 +10132,7 @@
       </c>
       <c r="L292" s="2"/>
     </row>
-    <row r="293" spans="1:12">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>40235</v>
       </c>
@@ -10153,7 +10165,7 @@
       </c>
       <c r="L293" s="2"/>
     </row>
-    <row r="294" spans="1:12">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>40238</v>
       </c>
@@ -10186,7 +10198,7 @@
       </c>
       <c r="L294" s="2"/>
     </row>
-    <row r="295" spans="1:12">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>40239</v>
       </c>
@@ -10219,7 +10231,7 @@
       </c>
       <c r="L295" s="2"/>
     </row>
-    <row r="296" spans="1:12">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>40240</v>
       </c>
@@ -10252,7 +10264,7 @@
       </c>
       <c r="L296" s="2"/>
     </row>
-    <row r="297" spans="1:12">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>40241</v>
       </c>
@@ -10285,7 +10297,7 @@
       </c>
       <c r="L297" s="2"/>
     </row>
-    <row r="298" spans="1:12">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>40242</v>
       </c>
@@ -10318,7 +10330,7 @@
       </c>
       <c r="L298" s="2"/>
     </row>
-    <row r="299" spans="1:12">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>40245</v>
       </c>
@@ -10351,7 +10363,7 @@
       </c>
       <c r="L299" s="2"/>
     </row>
-    <row r="300" spans="1:12">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>40246</v>
       </c>
@@ -10384,7 +10396,7 @@
       </c>
       <c r="L300" s="2"/>
     </row>
-    <row r="301" spans="1:12">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>40247</v>
       </c>
@@ -10417,7 +10429,7 @@
       </c>
       <c r="L301" s="2"/>
     </row>
-    <row r="302" spans="1:12">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>40248</v>
       </c>
@@ -10450,7 +10462,7 @@
       </c>
       <c r="L302" s="2"/>
     </row>
-    <row r="303" spans="1:12">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>40249</v>
       </c>
@@ -10484,7 +10496,7 @@
       <c r="K303" s="1"/>
       <c r="L303" s="2"/>
     </row>
-    <row r="304" spans="1:12">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>40252</v>
       </c>
@@ -10517,7 +10529,7 @@
       </c>
       <c r="L304" s="2"/>
     </row>
-    <row r="305" spans="1:12">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>40253</v>
       </c>
@@ -10550,7 +10562,7 @@
       </c>
       <c r="L305" s="2"/>
     </row>
-    <row r="306" spans="1:12">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>40254</v>
       </c>
@@ -10583,7 +10595,7 @@
       </c>
       <c r="L306" s="2"/>
     </row>
-    <row r="307" spans="1:12">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>40255</v>
       </c>
@@ -10616,7 +10628,7 @@
       </c>
       <c r="L307" s="2"/>
     </row>
-    <row r="308" spans="1:12">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>40256</v>
       </c>
@@ -10649,7 +10661,7 @@
       </c>
       <c r="L308" s="2"/>
     </row>
-    <row r="309" spans="1:12">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>40259</v>
       </c>
@@ -10682,7 +10694,7 @@
       </c>
       <c r="L309" s="2"/>
     </row>
-    <row r="310" spans="1:12">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>40260</v>
       </c>
@@ -10715,7 +10727,7 @@
       </c>
       <c r="L310" s="2"/>
     </row>
-    <row r="311" spans="1:12">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>40261</v>
       </c>
@@ -10748,7 +10760,7 @@
       </c>
       <c r="L311" s="2"/>
     </row>
-    <row r="312" spans="1:12">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>40262</v>
       </c>
@@ -10782,7 +10794,7 @@
       <c r="K312" s="1"/>
       <c r="L312" s="2"/>
     </row>
-    <row r="313" spans="1:12">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>40263</v>
       </c>
@@ -10815,7 +10827,7 @@
       </c>
       <c r="L313" s="2"/>
     </row>
-    <row r="314" spans="1:12">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>40266</v>
       </c>
@@ -10848,7 +10860,7 @@
       </c>
       <c r="L314" s="2"/>
     </row>
-    <row r="315" spans="1:12">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>40267</v>
       </c>
@@ -10881,7 +10893,7 @@
       </c>
       <c r="L315" s="2"/>
     </row>
-    <row r="316" spans="1:12">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>40268</v>
       </c>
@@ -10914,7 +10926,7 @@
       </c>
       <c r="L316" s="2"/>
     </row>
-    <row r="317" spans="1:12">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>40269</v>
       </c>
@@ -10947,7 +10959,7 @@
       </c>
       <c r="L317" s="2"/>
     </row>
-    <row r="318" spans="1:12">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>40270</v>
       </c>
@@ -10980,7 +10992,7 @@
       </c>
       <c r="L318" s="2"/>
     </row>
-    <row r="319" spans="1:12">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>40273</v>
       </c>
@@ -11013,7 +11025,7 @@
       </c>
       <c r="L319" s="2"/>
     </row>
-    <row r="320" spans="1:12">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>40274</v>
       </c>
@@ -11046,7 +11058,7 @@
       </c>
       <c r="L320" s="2"/>
     </row>
-    <row r="321" spans="1:12">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>40275</v>
       </c>
@@ -11079,7 +11091,7 @@
       </c>
       <c r="L321" s="2"/>
     </row>
-    <row r="322" spans="1:12">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>40276</v>
       </c>
@@ -11112,7 +11124,7 @@
       </c>
       <c r="L322" s="2"/>
     </row>
-    <row r="323" spans="1:12">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>40277</v>
       </c>
@@ -11145,7 +11157,7 @@
       </c>
       <c r="L323" s="2"/>
     </row>
-    <row r="324" spans="1:12">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>40280</v>
       </c>
@@ -11178,7 +11190,7 @@
       </c>
       <c r="L324" s="2"/>
     </row>
-    <row r="325" spans="1:12">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>40281</v>
       </c>
@@ -11211,7 +11223,7 @@
       </c>
       <c r="L325" s="2"/>
     </row>
-    <row r="326" spans="1:12">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>40282</v>
       </c>
@@ -11244,7 +11256,7 @@
       </c>
       <c r="L326" s="2"/>
     </row>
-    <row r="327" spans="1:12">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>40283</v>
       </c>
@@ -11278,7 +11290,7 @@
       <c r="K327" s="1"/>
       <c r="L327" s="2"/>
     </row>
-    <row r="328" spans="1:12">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>40284</v>
       </c>
@@ -11311,7 +11323,7 @@
       </c>
       <c r="L328" s="2"/>
     </row>
-    <row r="329" spans="1:12">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>40287</v>
       </c>
@@ -11344,7 +11356,7 @@
       </c>
       <c r="L329" s="2"/>
     </row>
-    <row r="330" spans="1:12">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>40288</v>
       </c>
@@ -11377,7 +11389,7 @@
       </c>
       <c r="L330" s="2"/>
     </row>
-    <row r="331" spans="1:12">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>40289</v>
       </c>
@@ -11410,7 +11422,7 @@
       </c>
       <c r="L331" s="2"/>
     </row>
-    <row r="332" spans="1:12">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>40290</v>
       </c>
@@ -11443,7 +11455,7 @@
       </c>
       <c r="L332" s="2"/>
     </row>
-    <row r="333" spans="1:12">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>40294</v>
       </c>
@@ -11476,7 +11488,7 @@
       </c>
       <c r="L333" s="2"/>
     </row>
-    <row r="334" spans="1:12">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>40295</v>
       </c>
@@ -11509,7 +11521,7 @@
       </c>
       <c r="L334" s="2"/>
     </row>
-    <row r="335" spans="1:12">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>40296</v>
       </c>
@@ -11542,7 +11554,7 @@
       </c>
       <c r="L335" s="2"/>
     </row>
-    <row r="336" spans="1:12">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>40297</v>
       </c>
@@ -11575,7 +11587,7 @@
       </c>
       <c r="L336" s="2"/>
     </row>
-    <row r="337" spans="1:12">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>40298</v>
       </c>
@@ -11608,7 +11620,7 @@
       </c>
       <c r="L337" s="2"/>
     </row>
-    <row r="338" spans="1:12">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>40301</v>
       </c>
@@ -11641,7 +11653,7 @@
       </c>
       <c r="L338" s="2"/>
     </row>
-    <row r="339" spans="1:12">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>40302</v>
       </c>
@@ -11674,7 +11686,7 @@
       </c>
       <c r="L339" s="2"/>
     </row>
-    <row r="340" spans="1:12">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>40303</v>
       </c>
@@ -11707,7 +11719,7 @@
       </c>
       <c r="L340" s="2"/>
     </row>
-    <row r="341" spans="1:12">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>40304</v>
       </c>
@@ -11740,7 +11752,7 @@
       </c>
       <c r="L341" s="2"/>
     </row>
-    <row r="342" spans="1:12">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>40305</v>
       </c>
@@ -11773,7 +11785,7 @@
       </c>
       <c r="L342" s="2"/>
     </row>
-    <row r="343" spans="1:12">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>40308</v>
       </c>
@@ -11806,7 +11818,7 @@
       </c>
       <c r="L343" s="2"/>
     </row>
-    <row r="344" spans="1:12">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>40309</v>
       </c>
@@ -11839,7 +11851,7 @@
       </c>
       <c r="L344" s="2"/>
     </row>
-    <row r="345" spans="1:12">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>40310</v>
       </c>
@@ -11872,7 +11884,7 @@
       </c>
       <c r="L345" s="2"/>
     </row>
-    <row r="346" spans="1:12">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>40311</v>
       </c>
@@ -11905,7 +11917,7 @@
       </c>
       <c r="L346" s="2"/>
     </row>
-    <row r="347" spans="1:12">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>40312</v>
       </c>
@@ -11938,7 +11950,7 @@
       </c>
       <c r="L347" s="2"/>
     </row>
-    <row r="348" spans="1:12">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>40315</v>
       </c>
@@ -11971,7 +11983,7 @@
       </c>
       <c r="L348" s="2"/>
     </row>
-    <row r="349" spans="1:12">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>40316</v>
       </c>
@@ -12004,7 +12016,7 @@
       </c>
       <c r="L349" s="2"/>
     </row>
-    <row r="350" spans="1:12">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>40318</v>
       </c>
@@ -12037,7 +12049,7 @@
       </c>
       <c r="L350" s="2"/>
     </row>
-    <row r="351" spans="1:12">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>40319</v>
       </c>
@@ -12070,7 +12082,7 @@
       </c>
       <c r="L351" s="2"/>
     </row>
-    <row r="352" spans="1:12">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>40322</v>
       </c>
@@ -12103,7 +12115,7 @@
       </c>
       <c r="L352" s="2"/>
     </row>
-    <row r="353" spans="1:12">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>40323</v>
       </c>
@@ -12136,7 +12148,7 @@
       </c>
       <c r="L353" s="2"/>
     </row>
-    <row r="354" spans="1:12">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>40324</v>
       </c>
@@ -12169,7 +12181,7 @@
       </c>
       <c r="L354" s="2"/>
     </row>
-    <row r="355" spans="1:12">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>40325</v>
       </c>
@@ -12202,7 +12214,7 @@
       </c>
       <c r="L355" s="2"/>
     </row>
-    <row r="356" spans="1:12">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>40326</v>
       </c>
@@ -12235,7 +12247,7 @@
       </c>
       <c r="L356" s="2"/>
     </row>
-    <row r="357" spans="1:12">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>40329</v>
       </c>
@@ -12268,7 +12280,7 @@
       </c>
       <c r="L357" s="2"/>
     </row>
-    <row r="358" spans="1:12">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>40330</v>
       </c>
@@ -12301,7 +12313,7 @@
       </c>
       <c r="L358" s="2"/>
     </row>
-    <row r="359" spans="1:12">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>40331</v>
       </c>
@@ -12334,7 +12346,7 @@
       </c>
       <c r="L359" s="2"/>
     </row>
-    <row r="360" spans="1:12">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>40332</v>
       </c>
@@ -12367,7 +12379,7 @@
       </c>
       <c r="L360" s="2"/>
     </row>
-    <row r="361" spans="1:12">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>40333</v>
       </c>
@@ -12400,7 +12412,7 @@
       </c>
       <c r="L361" s="2"/>
     </row>
-    <row r="362" spans="1:12">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>40336</v>
       </c>
@@ -12433,7 +12445,7 @@
       </c>
       <c r="L362" s="2"/>
     </row>
-    <row r="363" spans="1:12">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>40337</v>
       </c>
@@ -12466,7 +12478,7 @@
       </c>
       <c r="L363" s="2"/>
     </row>
-    <row r="364" spans="1:12">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>40338</v>
       </c>
@@ -12499,7 +12511,7 @@
       </c>
       <c r="L364" s="2"/>
     </row>
-    <row r="365" spans="1:12">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>40339</v>
       </c>
@@ -12532,7 +12544,7 @@
       </c>
       <c r="L365" s="2"/>
     </row>
-    <row r="366" spans="1:12">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>40340</v>
       </c>
@@ -12565,7 +12577,7 @@
       </c>
       <c r="L366" s="2"/>
     </row>
-    <row r="367" spans="1:12">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>40343</v>
       </c>
@@ -12598,7 +12610,7 @@
       </c>
       <c r="L367" s="2"/>
     </row>
-    <row r="368" spans="1:12">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>40344</v>
       </c>
@@ -12631,7 +12643,7 @@
       </c>
       <c r="L368" s="2"/>
     </row>
-    <row r="369" spans="1:12">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>40345</v>
       </c>
@@ -12664,7 +12676,7 @@
       </c>
       <c r="L369" s="2"/>
     </row>
-    <row r="370" spans="1:12">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>40346</v>
       </c>
@@ -12697,7 +12709,7 @@
       </c>
       <c r="L370" s="2"/>
     </row>
-    <row r="371" spans="1:12">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>40347</v>
       </c>
@@ -12730,7 +12742,7 @@
       </c>
       <c r="L371" s="2"/>
     </row>
-    <row r="372" spans="1:12">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>40350</v>
       </c>
@@ -12763,7 +12775,7 @@
       </c>
       <c r="L372" s="2"/>
     </row>
-    <row r="373" spans="1:12">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>40351</v>
       </c>
@@ -12796,7 +12808,7 @@
       </c>
       <c r="L373" s="2"/>
     </row>
-    <row r="374" spans="1:12">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>40352</v>
       </c>
@@ -12829,7 +12841,7 @@
       </c>
       <c r="L374" s="2"/>
     </row>
-    <row r="375" spans="1:12">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>40353</v>
       </c>
@@ -12862,7 +12874,7 @@
       </c>
       <c r="L375" s="2"/>
     </row>
-    <row r="376" spans="1:12">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>40354</v>
       </c>
@@ -12895,7 +12907,7 @@
       </c>
       <c r="L376" s="2"/>
     </row>
-    <row r="377" spans="1:12">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>40357</v>
       </c>
@@ -12928,7 +12940,7 @@
       </c>
       <c r="L377" s="2"/>
     </row>
-    <row r="378" spans="1:12">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>40358</v>
       </c>
@@ -12961,7 +12973,7 @@
       </c>
       <c r="L378" s="2"/>
     </row>
-    <row r="379" spans="1:12">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>40359</v>
       </c>
@@ -12994,7 +13006,7 @@
       </c>
       <c r="L379" s="2"/>
     </row>
-    <row r="380" spans="1:12">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>40360</v>
       </c>
@@ -13027,7 +13039,7 @@
       </c>
       <c r="L380" s="2"/>
     </row>
-    <row r="381" spans="1:12">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>40361</v>
       </c>
@@ -13060,7 +13072,7 @@
       </c>
       <c r="L381" s="2"/>
     </row>
-    <row r="382" spans="1:12">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>40364</v>
       </c>
@@ -13093,7 +13105,7 @@
       </c>
       <c r="L382" s="2"/>
     </row>
-    <row r="383" spans="1:12">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>40365</v>
       </c>
@@ -13126,7 +13138,7 @@
       </c>
       <c r="L383" s="2"/>
     </row>
-    <row r="384" spans="1:12">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>40366</v>
       </c>
@@ -13159,7 +13171,7 @@
       </c>
       <c r="L384" s="2"/>
     </row>
-    <row r="385" spans="1:12">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>40367</v>
       </c>
@@ -13192,7 +13204,7 @@
       </c>
       <c r="L385" s="2"/>
     </row>
-    <row r="386" spans="1:12">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>40368</v>
       </c>
@@ -13225,7 +13237,7 @@
       </c>
       <c r="L386" s="2"/>
     </row>
-    <row r="387" spans="1:12">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>40371</v>
       </c>
@@ -13258,7 +13270,7 @@
       </c>
       <c r="L387" s="2"/>
     </row>
-    <row r="388" spans="1:12">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>40372</v>
       </c>
@@ -13291,7 +13303,7 @@
       </c>
       <c r="L388" s="2"/>
     </row>
-    <row r="389" spans="1:12">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>40373</v>
       </c>
@@ -13324,7 +13336,7 @@
       </c>
       <c r="L389" s="2"/>
     </row>
-    <row r="390" spans="1:12">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>40374</v>
       </c>
@@ -13357,7 +13369,7 @@
       </c>
       <c r="L390" s="2"/>
     </row>
-    <row r="391" spans="1:12">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>40375</v>
       </c>
@@ -13390,7 +13402,7 @@
       </c>
       <c r="L391" s="2"/>
     </row>
-    <row r="392" spans="1:12">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>40378</v>
       </c>
@@ -13423,7 +13435,7 @@
       </c>
       <c r="L392" s="2"/>
     </row>
-    <row r="393" spans="1:12">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>40379</v>
       </c>
@@ -13456,7 +13468,7 @@
       </c>
       <c r="L393" s="2"/>
     </row>
-    <row r="394" spans="1:12">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>40380</v>
       </c>
@@ -13489,7 +13501,7 @@
       </c>
       <c r="L394" s="2"/>
     </row>
-    <row r="395" spans="1:12">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>40381</v>
       </c>
@@ -13522,7 +13534,7 @@
       </c>
       <c r="L395" s="2"/>
     </row>
-    <row r="396" spans="1:12">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>40382</v>
       </c>
@@ -13555,7 +13567,7 @@
       </c>
       <c r="L396" s="2"/>
     </row>
-    <row r="397" spans="1:12">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>40385</v>
       </c>
@@ -13588,7 +13600,7 @@
       </c>
       <c r="L397" s="2"/>
     </row>
-    <row r="398" spans="1:12">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>40386</v>
       </c>
@@ -13621,7 +13633,7 @@
       </c>
       <c r="L398" s="2"/>
     </row>
-    <row r="399" spans="1:12">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>40387</v>
       </c>
@@ -13654,7 +13666,7 @@
       </c>
       <c r="L399" s="2"/>
     </row>
-    <row r="400" spans="1:12">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>40388</v>
       </c>
@@ -13687,7 +13699,7 @@
       </c>
       <c r="L400" s="2"/>
     </row>
-    <row r="401" spans="1:12">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>40389</v>
       </c>
@@ -13720,7 +13732,7 @@
       </c>
       <c r="L401" s="2"/>
     </row>
-    <row r="402" spans="1:12">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>40392</v>
       </c>
@@ -13753,7 +13765,7 @@
       </c>
       <c r="L402" s="2"/>
     </row>
-    <row r="403" spans="1:12">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>40393</v>
       </c>
@@ -13786,7 +13798,7 @@
       </c>
       <c r="L403" s="2"/>
     </row>
-    <row r="404" spans="1:12">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>40394</v>
       </c>
@@ -13819,7 +13831,7 @@
       </c>
       <c r="L404" s="2"/>
     </row>
-    <row r="405" spans="1:12">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>40395</v>
       </c>
@@ -13852,7 +13864,7 @@
       </c>
       <c r="L405" s="2"/>
     </row>
-    <row r="406" spans="1:12">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>40396</v>
       </c>
@@ -13885,7 +13897,7 @@
       </c>
       <c r="L406" s="2"/>
     </row>
-    <row r="407" spans="1:12">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>40399</v>
       </c>
@@ -13918,7 +13930,7 @@
       </c>
       <c r="L407" s="2"/>
     </row>
-    <row r="408" spans="1:12">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>40400</v>
       </c>
@@ -13951,7 +13963,7 @@
       </c>
       <c r="L408" s="2"/>
     </row>
-    <row r="409" spans="1:12">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>40401</v>
       </c>
@@ -13984,7 +13996,7 @@
       </c>
       <c r="L409" s="2"/>
     </row>
-    <row r="410" spans="1:12">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>40402</v>
       </c>
@@ -14017,7 +14029,7 @@
       </c>
       <c r="L410" s="2"/>
     </row>
-    <row r="411" spans="1:12">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>40403</v>
       </c>
@@ -14050,7 +14062,7 @@
       </c>
       <c r="L411" s="2"/>
     </row>
-    <row r="412" spans="1:12">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>40406</v>
       </c>
@@ -14083,7 +14095,7 @@
       </c>
       <c r="L412" s="2"/>
     </row>
-    <row r="413" spans="1:12">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>40407</v>
       </c>
@@ -14116,7 +14128,7 @@
       </c>
       <c r="L413" s="2"/>
     </row>
-    <row r="414" spans="1:12">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>40408</v>
       </c>
@@ -14149,7 +14161,7 @@
       </c>
       <c r="L414" s="2"/>
     </row>
-    <row r="415" spans="1:12">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>40409</v>
       </c>
@@ -14182,7 +14194,7 @@
       </c>
       <c r="L415" s="2"/>
     </row>
-    <row r="416" spans="1:12">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>40410</v>
       </c>
@@ -14215,7 +14227,7 @@
       </c>
       <c r="L416" s="2"/>
     </row>
-    <row r="417" spans="1:12">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>40413</v>
       </c>
@@ -14248,7 +14260,7 @@
       </c>
       <c r="L417" s="2"/>
     </row>
-    <row r="418" spans="1:12">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>40414</v>
       </c>
@@ -14281,7 +14293,7 @@
       </c>
       <c r="L418" s="2"/>
     </row>
-    <row r="419" spans="1:12">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>40415</v>
       </c>
@@ -14314,7 +14326,7 @@
       </c>
       <c r="L419" s="2"/>
     </row>
-    <row r="420" spans="1:12">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>40416</v>
       </c>
@@ -14347,7 +14359,7 @@
       </c>
       <c r="L420" s="2"/>
     </row>
-    <row r="421" spans="1:12">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>40417</v>
       </c>
@@ -14380,7 +14392,7 @@
       </c>
       <c r="L421" s="2"/>
     </row>
-    <row r="422" spans="1:12">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>40421</v>
       </c>
@@ -14413,7 +14425,7 @@
       </c>
       <c r="L422" s="2"/>
     </row>
-    <row r="423" spans="1:12">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>40422</v>
       </c>
@@ -14446,7 +14458,7 @@
       </c>
       <c r="L423" s="2"/>
     </row>
-    <row r="424" spans="1:12">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>40423</v>
       </c>
@@ -14479,7 +14491,7 @@
       </c>
       <c r="L424" s="2"/>
     </row>
-    <row r="425" spans="1:12">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>40424</v>
       </c>
@@ -14512,7 +14524,7 @@
       </c>
       <c r="L425" s="2"/>
     </row>
-    <row r="426" spans="1:12">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>40427</v>
       </c>
@@ -14545,7 +14557,7 @@
       </c>
       <c r="L426" s="2"/>
     </row>
-    <row r="427" spans="1:12">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>40428</v>
       </c>
@@ -14578,7 +14590,7 @@
       </c>
       <c r="L427" s="2"/>
     </row>
-    <row r="428" spans="1:12">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>40429</v>
       </c>
@@ -14611,7 +14623,7 @@
       </c>
       <c r="L428" s="2"/>
     </row>
-    <row r="429" spans="1:12">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>40434</v>
       </c>
@@ -14644,7 +14656,7 @@
       </c>
       <c r="L429" s="2"/>
     </row>
-    <row r="430" spans="1:12">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>40435</v>
       </c>
@@ -14677,7 +14689,7 @@
       </c>
       <c r="L430" s="2"/>
     </row>
-    <row r="431" spans="1:12">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>40436</v>
       </c>
@@ -14710,7 +14722,7 @@
       </c>
       <c r="L431" s="2"/>
     </row>
-    <row r="432" spans="1:12">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>40437</v>
       </c>
@@ -14743,7 +14755,7 @@
       </c>
       <c r="L432" s="2"/>
     </row>
-    <row r="433" spans="1:12">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>40438</v>
       </c>
@@ -14776,7 +14788,7 @@
       </c>
       <c r="L433" s="2"/>
     </row>
-    <row r="434" spans="1:12">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>40441</v>
       </c>
@@ -14809,7 +14821,7 @@
       </c>
       <c r="L434" s="2"/>
     </row>
-    <row r="435" spans="1:12">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>40442</v>
       </c>
@@ -14842,7 +14854,7 @@
       </c>
       <c r="L435" s="2"/>
     </row>
-    <row r="436" spans="1:12">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>40443</v>
       </c>
@@ -14875,7 +14887,7 @@
       </c>
       <c r="L436" s="2"/>
     </row>
-    <row r="437" spans="1:12">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>40444</v>
       </c>
@@ -14908,7 +14920,7 @@
       </c>
       <c r="L437" s="2"/>
     </row>
-    <row r="438" spans="1:12">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>40445</v>
       </c>
@@ -14941,7 +14953,7 @@
       </c>
       <c r="L438" s="2"/>
     </row>
-    <row r="439" spans="1:12">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>40448</v>
       </c>
@@ -14974,7 +14986,7 @@
       </c>
       <c r="L439" s="2"/>
     </row>
-    <row r="440" spans="1:12">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>40449</v>
       </c>
@@ -15007,7 +15019,7 @@
       </c>
       <c r="L440" s="2"/>
     </row>
-    <row r="441" spans="1:12">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>40450</v>
       </c>
@@ -15040,7 +15052,7 @@
       </c>
       <c r="L441" s="2"/>
     </row>
-    <row r="442" spans="1:12">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>40451</v>
       </c>
@@ -15073,7 +15085,7 @@
       </c>
       <c r="L442" s="2"/>
     </row>
-    <row r="443" spans="1:12">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>40452</v>
       </c>
@@ -15106,7 +15118,7 @@
       </c>
       <c r="L443" s="2"/>
     </row>
-    <row r="444" spans="1:12">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>40455</v>
       </c>
@@ -15139,7 +15151,7 @@
       </c>
       <c r="L444" s="2"/>
     </row>
-    <row r="445" spans="1:12">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>40456</v>
       </c>
@@ -15172,7 +15184,7 @@
       </c>
       <c r="L445" s="2"/>
     </row>
-    <row r="446" spans="1:12">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>40457</v>
       </c>
@@ -15205,7 +15217,7 @@
       </c>
       <c r="L446" s="2"/>
     </row>
-    <row r="447" spans="1:12">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>40458</v>
       </c>
@@ -15238,7 +15250,7 @@
       </c>
       <c r="L447" s="2"/>
     </row>
-    <row r="448" spans="1:12">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>40459</v>
       </c>
@@ -15271,7 +15283,7 @@
       </c>
       <c r="L448" s="2"/>
     </row>
-    <row r="449" spans="1:12">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>40462</v>
       </c>
@@ -15304,7 +15316,7 @@
       </c>
       <c r="L449" s="2"/>
     </row>
-    <row r="450" spans="1:12">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>40463</v>
       </c>
@@ -15337,7 +15349,7 @@
       </c>
       <c r="L450" s="2"/>
     </row>
-    <row r="451" spans="1:12">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>40464</v>
       </c>
@@ -15370,7 +15382,7 @@
       </c>
       <c r="L451" s="2"/>
     </row>
-    <row r="452" spans="1:12">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>40465</v>
       </c>
@@ -15403,7 +15415,7 @@
       </c>
       <c r="L452" s="2"/>
     </row>
-    <row r="453" spans="1:12">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>40466</v>
       </c>
@@ -15436,7 +15448,7 @@
       </c>
       <c r="L453" s="2"/>
     </row>
-    <row r="454" spans="1:12">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>40469</v>
       </c>
@@ -15469,7 +15481,7 @@
       </c>
       <c r="L454" s="2"/>
     </row>
-    <row r="455" spans="1:12">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>40470</v>
       </c>
@@ -15502,7 +15514,7 @@
       </c>
       <c r="L455" s="2"/>
     </row>
-    <row r="456" spans="1:12">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>40471</v>
       </c>
@@ -15535,7 +15547,7 @@
       </c>
       <c r="L456" s="2"/>
     </row>
-    <row r="457" spans="1:12">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>40472</v>
       </c>
@@ -15568,7 +15580,7 @@
       </c>
       <c r="L457" s="2"/>
     </row>
-    <row r="458" spans="1:12">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>40473</v>
       </c>
@@ -15602,7 +15614,7 @@
       <c r="K458" s="1"/>
       <c r="L458" s="2"/>
     </row>
-    <row r="459" spans="1:12">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>40476</v>
       </c>
@@ -15635,7 +15647,7 @@
       </c>
       <c r="L459" s="2"/>
     </row>
-    <row r="460" spans="1:12">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>40477</v>
       </c>
@@ -15668,7 +15680,7 @@
       </c>
       <c r="L460" s="2"/>
     </row>
-    <row r="461" spans="1:12">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>40478</v>
       </c>
@@ -15701,7 +15713,7 @@
       </c>
       <c r="L461" s="2"/>
     </row>
-    <row r="462" spans="1:12">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>40483</v>
       </c>
@@ -15734,7 +15746,7 @@
       </c>
       <c r="L462" s="2"/>
     </row>
-    <row r="463" spans="1:12">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>40484</v>
       </c>
@@ -15767,7 +15779,7 @@
       </c>
       <c r="L463" s="2"/>
     </row>
-    <row r="464" spans="1:12">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>40485</v>
       </c>
@@ -15800,7 +15812,7 @@
       </c>
       <c r="L464" s="2"/>
     </row>
-    <row r="465" spans="1:12">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>40486</v>
       </c>
@@ -15833,7 +15845,7 @@
       </c>
       <c r="L465" s="2"/>
     </row>
-    <row r="466" spans="1:12">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>40487</v>
       </c>
@@ -15866,7 +15878,7 @@
       </c>
       <c r="L466" s="2"/>
     </row>
-    <row r="467" spans="1:12">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>40490</v>
       </c>
@@ -15899,7 +15911,7 @@
       </c>
       <c r="L467" s="2"/>
     </row>
-    <row r="468" spans="1:12">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>40491</v>
       </c>
@@ -15932,7 +15944,7 @@
       </c>
       <c r="L468" s="2"/>
     </row>
-    <row r="469" spans="1:12">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>40492</v>
       </c>
@@ -15965,7 +15977,7 @@
       </c>
       <c r="L469" s="2"/>
     </row>
-    <row r="470" spans="1:12">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>40493</v>
       </c>
@@ -15998,7 +16010,7 @@
       </c>
       <c r="L470" s="2"/>
     </row>
-    <row r="471" spans="1:12">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>40494</v>
       </c>
@@ -16031,7 +16043,7 @@
       </c>
       <c r="L471" s="2"/>
     </row>
-    <row r="472" spans="1:12">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>40497</v>
       </c>
@@ -16064,7 +16076,7 @@
       </c>
       <c r="L472" s="2"/>
     </row>
-    <row r="473" spans="1:12">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>40504</v>
       </c>
@@ -16097,7 +16109,7 @@
       </c>
       <c r="L473" s="2"/>
     </row>
-    <row r="474" spans="1:12">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>40505</v>
       </c>
@@ -16130,7 +16142,7 @@
       </c>
       <c r="L474" s="2"/>
     </row>
-    <row r="475" spans="1:12">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>40506</v>
       </c>
@@ -16163,7 +16175,7 @@
       </c>
       <c r="L475" s="2"/>
     </row>
-    <row r="476" spans="1:12">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>40507</v>
       </c>
@@ -16196,7 +16208,7 @@
       </c>
       <c r="L476" s="2"/>
     </row>
-    <row r="477" spans="1:12">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>40508</v>
       </c>
@@ -16229,7 +16241,7 @@
       </c>
       <c r="L477" s="2"/>
     </row>
-    <row r="478" spans="1:12">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>40511</v>
       </c>
@@ -16262,7 +16274,7 @@
       </c>
       <c r="L478" s="2"/>
     </row>
-    <row r="479" spans="1:12">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>40512</v>
       </c>
@@ -16295,7 +16307,7 @@
       </c>
       <c r="L479" s="2"/>
     </row>
-    <row r="480" spans="1:12">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>40513</v>
       </c>
@@ -16328,7 +16340,7 @@
       </c>
       <c r="L480" s="2"/>
     </row>
-    <row r="481" spans="1:12">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>40514</v>
       </c>
@@ -16361,7 +16373,7 @@
       </c>
       <c r="L481" s="2"/>
     </row>
-    <row r="482" spans="1:12">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>40515</v>
       </c>
@@ -16394,7 +16406,7 @@
       </c>
       <c r="L482" s="2"/>
     </row>
-    <row r="483" spans="1:12">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>40518</v>
       </c>
@@ -16427,7 +16439,7 @@
       </c>
       <c r="L483" s="2"/>
     </row>
-    <row r="484" spans="1:12">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>40519</v>
       </c>
@@ -16460,7 +16472,7 @@
       </c>
       <c r="L484" s="2"/>
     </row>
-    <row r="485" spans="1:12">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>40520</v>
       </c>
@@ -16493,7 +16505,7 @@
       </c>
       <c r="L485" s="2"/>
     </row>
-    <row r="486" spans="1:12">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>40521</v>
       </c>
@@ -16526,7 +16538,7 @@
       </c>
       <c r="L486" s="2"/>
     </row>
-    <row r="487" spans="1:12">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>40522</v>
       </c>
@@ -16559,7 +16571,7 @@
       </c>
       <c r="L487" s="2"/>
     </row>
-    <row r="488" spans="1:12">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>40525</v>
       </c>
@@ -16592,7 +16604,7 @@
       </c>
       <c r="L488" s="2"/>
     </row>
-    <row r="489" spans="1:12">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>40526</v>
       </c>
@@ -16625,7 +16637,7 @@
       </c>
       <c r="L489" s="2"/>
     </row>
-    <row r="490" spans="1:12">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>40527</v>
       </c>
@@ -16658,7 +16670,7 @@
       </c>
       <c r="L490" s="2"/>
     </row>
-    <row r="491" spans="1:12">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>40528</v>
       </c>
@@ -16691,7 +16703,7 @@
       </c>
       <c r="L491" s="2"/>
     </row>
-    <row r="492" spans="1:12">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>40529</v>
       </c>
@@ -16724,7 +16736,7 @@
       </c>
       <c r="L492" s="2"/>
     </row>
-    <row r="493" spans="1:12">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>40532</v>
       </c>
@@ -16757,7 +16769,7 @@
       </c>
       <c r="L493" s="2"/>
     </row>
-    <row r="494" spans="1:12">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>40533</v>
       </c>
@@ -16790,7 +16802,7 @@
       </c>
       <c r="L494" s="2"/>
     </row>
-    <row r="495" spans="1:12">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>40534</v>
       </c>
@@ -16823,7 +16835,7 @@
       </c>
       <c r="L495" s="2"/>
     </row>
-    <row r="496" spans="1:12">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>40535</v>
       </c>
@@ -16856,7 +16868,7 @@
       </c>
       <c r="L496" s="2"/>
     </row>
-    <row r="497" spans="1:12">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>40536</v>
       </c>
@@ -16889,7 +16901,7 @@
       </c>
       <c r="L497" s="2"/>
     </row>
-    <row r="498" spans="1:12">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>40539</v>
       </c>
@@ -16922,7 +16934,7 @@
       </c>
       <c r="L498" s="2"/>
     </row>
-    <row r="499" spans="1:12">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>40540</v>
       </c>
@@ -16955,7 +16967,7 @@
       </c>
       <c r="L499" s="2"/>
     </row>
-    <row r="500" spans="1:12">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>40541</v>
       </c>
@@ -16988,7 +17000,7 @@
       </c>
       <c r="L500" s="2"/>
     </row>
-    <row r="501" spans="1:12">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>40542</v>
       </c>
@@ -17021,7 +17033,7 @@
       </c>
       <c r="L501" s="2"/>
     </row>
-    <row r="502" spans="1:12">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>40543</v>
       </c>
@@ -17054,7 +17066,7 @@
       </c>
       <c r="L502" s="2"/>
     </row>
-    <row r="503" spans="1:12">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>40546</v>
       </c>
@@ -17087,7 +17099,7 @@
       </c>
       <c r="L503" s="2"/>
     </row>
-    <row r="504" spans="1:12">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>40547</v>
       </c>
@@ -17120,7 +17132,7 @@
       </c>
       <c r="L504" s="2"/>
     </row>
-    <row r="505" spans="1:12">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>40548</v>
       </c>
@@ -17153,7 +17165,7 @@
       </c>
       <c r="L505" s="2"/>
     </row>
-    <row r="506" spans="1:12">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A506" s="2">
         <v>40549</v>
       </c>
@@ -17186,7 +17198,7 @@
       </c>
       <c r="L506" s="2"/>
     </row>
-    <row r="507" spans="1:12">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A507" s="2">
         <v>40550</v>
       </c>
@@ -17219,7 +17231,7 @@
       </c>
       <c r="L507" s="2"/>
     </row>
-    <row r="508" spans="1:12">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>40553</v>
       </c>
@@ -17252,7 +17264,7 @@
       </c>
       <c r="L508" s="2"/>
     </row>
-    <row r="509" spans="1:12">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A509" s="2">
         <v>40554</v>
       </c>
@@ -17285,7 +17297,7 @@
       </c>
       <c r="L509" s="2"/>
     </row>
-    <row r="510" spans="1:12">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A510" s="2">
         <v>40555</v>
       </c>
@@ -17318,7 +17330,7 @@
       </c>
       <c r="L510" s="2"/>
     </row>
-    <row r="511" spans="1:12">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>40556</v>
       </c>
@@ -17351,7 +17363,7 @@
       </c>
       <c r="L511" s="2"/>
     </row>
-    <row r="512" spans="1:12">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>40557</v>
       </c>
@@ -17384,7 +17396,7 @@
       </c>
       <c r="L512" s="2"/>
     </row>
-    <row r="513" spans="1:12">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>40560</v>
       </c>
@@ -17417,7 +17429,7 @@
       </c>
       <c r="L513" s="2"/>
     </row>
-    <row r="514" spans="1:12">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>40561</v>
       </c>
@@ -17450,7 +17462,7 @@
       </c>
       <c r="L514" s="2"/>
     </row>
-    <row r="515" spans="1:12">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>40562</v>
       </c>
@@ -17483,7 +17495,7 @@
       </c>
       <c r="L515" s="2"/>
     </row>
-    <row r="516" spans="1:12">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>40563</v>
       </c>
@@ -17516,7 +17528,7 @@
       </c>
       <c r="L516" s="2"/>
     </row>
-    <row r="517" spans="1:12">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>40564</v>
       </c>
@@ -17549,7 +17561,7 @@
       </c>
       <c r="L517" s="2"/>
     </row>
-    <row r="518" spans="1:12">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>40567</v>
       </c>
@@ -17582,7 +17594,7 @@
       </c>
       <c r="L518" s="2"/>
     </row>
-    <row r="519" spans="1:12">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>40568</v>
       </c>
@@ -17615,7 +17627,7 @@
       </c>
       <c r="L519" s="2"/>
     </row>
-    <row r="520" spans="1:12">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>40569</v>
       </c>
@@ -17648,7 +17660,7 @@
       </c>
       <c r="L520" s="2"/>
     </row>
-    <row r="521" spans="1:12">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>40570</v>
       </c>
@@ -17681,7 +17693,7 @@
       </c>
       <c r="L521" s="2"/>
     </row>
-    <row r="522" spans="1:12">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>40571</v>
       </c>
@@ -17714,7 +17726,7 @@
       </c>
       <c r="L522" s="2"/>
     </row>
-    <row r="523" spans="1:12">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>40574</v>
       </c>
@@ -17747,7 +17759,7 @@
       </c>
       <c r="L523" s="2"/>
     </row>
-    <row r="524" spans="1:12">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>40575</v>
       </c>
@@ -17780,7 +17792,7 @@
       </c>
       <c r="L524" s="2"/>
     </row>
-    <row r="525" spans="1:12">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>40576</v>
       </c>
@@ -17813,7 +17825,7 @@
       </c>
       <c r="L525" s="2"/>
     </row>
-    <row r="526" spans="1:12">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>40577</v>
       </c>
@@ -17846,7 +17858,7 @@
       </c>
       <c r="L526" s="2"/>
     </row>
-    <row r="527" spans="1:12">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>40578</v>
       </c>
@@ -17879,7 +17891,7 @@
       </c>
       <c r="L527" s="2"/>
     </row>
-    <row r="528" spans="1:12">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>40581</v>
       </c>
@@ -17912,7 +17924,7 @@
       </c>
       <c r="L528" s="2"/>
     </row>
-    <row r="529" spans="1:12">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>40582</v>
       </c>
@@ -17945,7 +17957,7 @@
       </c>
       <c r="L529" s="2"/>
     </row>
-    <row r="530" spans="1:12">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
         <v>40583</v>
       </c>
@@ -17978,7 +17990,7 @@
       </c>
       <c r="L530" s="2"/>
     </row>
-    <row r="531" spans="1:12">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>40584</v>
       </c>
@@ -18011,7 +18023,7 @@
       </c>
       <c r="L531" s="2"/>
     </row>
-    <row r="532" spans="1:12">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>40585</v>
       </c>
@@ -18044,7 +18056,7 @@
       </c>
       <c r="L532" s="2"/>
     </row>
-    <row r="533" spans="1:12">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>40588</v>
       </c>
@@ -18077,7 +18089,7 @@
       </c>
       <c r="L533" s="2"/>
     </row>
-    <row r="534" spans="1:12">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A534" s="2">
         <v>40589</v>
       </c>
@@ -18110,7 +18122,7 @@
       </c>
       <c r="L534" s="2"/>
     </row>
-    <row r="535" spans="1:12">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A535" s="2">
         <v>40590</v>
       </c>
@@ -18143,7 +18155,7 @@
       </c>
       <c r="L535" s="2"/>
     </row>
-    <row r="536" spans="1:12">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A536" s="2">
         <v>40591</v>
       </c>
@@ -18176,7 +18188,7 @@
       </c>
       <c r="L536" s="2"/>
     </row>
-    <row r="537" spans="1:12">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A537" s="2">
         <v>40592</v>
       </c>
@@ -18209,7 +18221,7 @@
       </c>
       <c r="L537" s="2"/>
     </row>
-    <row r="538" spans="1:12">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A538" s="2">
         <v>40595</v>
       </c>
@@ -18242,7 +18254,7 @@
       </c>
       <c r="L538" s="2"/>
     </row>
-    <row r="539" spans="1:12">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A539" s="2">
         <v>40596</v>
       </c>
